--- a/municipal/ბიზნეს რეგისტრი/ეკონომიკურად აქტიური ბიზნეს სუბიექტების რაოდენობა/ქ.თბილისი.xlsx
+++ b/municipal/ბიზნეს რეგისტრი/ეკონომიკურად აქტიური ბიზნეს სუბიექტების რაოდენობა/ქ.თბილისი.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\რეგისტრი - MAN\რეგისტრი 1000 კაცზე\ეკონომიკურად აქტიური ბიზნეს სუბიექტების რაოდენობა (მოსახლეობის 1 000 კაცზე)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\1. მოქმედი ბიზნეს სუბიექტების რაოდენობა (მოსახლეობის 1 000 კაცზე)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,10 +26,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>მოქმედ ბიზნეს სუბიექტეთა რაოდენობა</t>
+    <t>მოქმედ ბიზნეს სუბიექტეთა რაოდენობა ქ. თბილისის მუნიციპალიტეტში (მოსახლეობის 1 000 კაცზე)</t>
   </si>
   <si>
-    <t>მოქმედ ბიზნეს სუბიექტეთა რაოდენობა ქ. თბილისის მუნიციპალიტეტში (მოსახლეობის 1 000 კაცზე)</t>
+    <t>სუბიექტების რაოდენობა</t>
   </si>
 </sst>
 </file>
@@ -81,7 +81,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -109,11 +109,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -128,13 +139,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,104 +434,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="13" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+    </row>
+    <row r="2" spans="1:22" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:22" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2014</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2015</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2016</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2017</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2018</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2019</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2020</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2021</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2022</v>
+      </c>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3">
-        <v>2012</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2013</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2014</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2016</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2017</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2018</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2019</v>
-      </c>
-      <c r="J2" s="4">
-        <v>2020</v>
-      </c>
-      <c r="K2" s="4">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="B4" s="7">
         <v>51.726964120061943</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C4" s="7">
         <v>51.864188528363982</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D4" s="7">
         <v>52.248431238454437</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E4" s="7">
         <v>57.366766728918464</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F4" s="7">
         <v>57.995205478256167</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G4" s="7">
         <v>56.083792118079501</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H4" s="7">
         <v>56.604208597370459</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I4" s="7">
         <v>58.862204996885602</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J4" s="7">
         <v>57.813426277363767</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K4" s="7">
         <v>61.776431244274065</v>
       </c>
+      <c r="L4" s="7">
+        <v>28.547832229305932</v>
+      </c>
+      <c r="M4" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
